--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H2">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.343201232341468</v>
+        <v>0.5253496666666667</v>
       </c>
       <c r="N2">
-        <v>0.343201232341468</v>
+        <v>1.576049</v>
       </c>
       <c r="O2">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="P2">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="Q2">
-        <v>0.5595684826111985</v>
+        <v>1.062041807753223</v>
       </c>
       <c r="R2">
-        <v>0.5595684826111985</v>
+        <v>9.558376269779</v>
       </c>
       <c r="S2">
-        <v>0.0001141102846918443</v>
+        <v>0.0002050837035641539</v>
       </c>
       <c r="T2">
-        <v>0.0001141102846918443</v>
+        <v>0.0002050837035641539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H3">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.65815648119568</v>
+        <v>2.717626000000001</v>
       </c>
       <c r="N3">
-        <v>2.65815648119568</v>
+        <v>8.152878000000001</v>
       </c>
       <c r="O3">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="P3">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="Q3">
-        <v>4.333960512256788</v>
+        <v>5.493926451215335</v>
       </c>
       <c r="R3">
-        <v>4.333960512256788</v>
+        <v>49.44533806093801</v>
       </c>
       <c r="S3">
-        <v>0.0008838050806382855</v>
+        <v>0.001060894943587866</v>
       </c>
       <c r="T3">
-        <v>0.0008838050806382855</v>
+        <v>0.001060894943587866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H4">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4661387264485</v>
+        <v>25.35159533333334</v>
       </c>
       <c r="N4">
-        <v>24.4661387264485</v>
+        <v>76.05478600000001</v>
       </c>
       <c r="O4">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="P4">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="Q4">
-        <v>39.89053311117638</v>
+        <v>51.25054006044513</v>
       </c>
       <c r="R4">
-        <v>39.89053311117638</v>
+        <v>461.2548605440061</v>
       </c>
       <c r="S4">
-        <v>0.008134697059034614</v>
+        <v>0.009896644829354394</v>
       </c>
       <c r="T4">
-        <v>0.008134697059034614</v>
+        <v>0.009896644829354394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H5">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.343201232341468</v>
+        <v>0.5253496666666667</v>
       </c>
       <c r="N5">
-        <v>0.343201232341468</v>
+        <v>1.576049</v>
       </c>
       <c r="O5">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="P5">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="Q5">
-        <v>8.624670833867492</v>
+        <v>13.20762369168867</v>
       </c>
       <c r="R5">
-        <v>8.624670833867492</v>
+        <v>118.868613225198</v>
       </c>
       <c r="S5">
-        <v>0.001758790344362346</v>
+        <v>0.002550434796633322</v>
       </c>
       <c r="T5">
-        <v>0.001758790344362346</v>
+        <v>0.002550434796633321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H6">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.65815648119568</v>
+        <v>2.717626000000001</v>
       </c>
       <c r="N6">
-        <v>2.65815648119568</v>
+        <v>8.152878000000001</v>
       </c>
       <c r="O6">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="P6">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="Q6">
-        <v>66.79965721222784</v>
+        <v>68.32284061488402</v>
       </c>
       <c r="R6">
-        <v>66.79965721222784</v>
+        <v>614.9055655339561</v>
       </c>
       <c r="S6">
-        <v>0.01362215374646331</v>
+        <v>0.01319336121142571</v>
       </c>
       <c r="T6">
-        <v>0.01362215374646331</v>
+        <v>0.01319336121142571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H7">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.4661387264485</v>
+        <v>25.35159533333334</v>
       </c>
       <c r="N7">
-        <v>24.4661387264485</v>
+        <v>76.05478600000001</v>
       </c>
       <c r="O7">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="P7">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="Q7">
-        <v>614.8357674934266</v>
+        <v>637.3551795914415</v>
       </c>
       <c r="R7">
-        <v>614.8357674934266</v>
+        <v>5736.196616322973</v>
       </c>
       <c r="S7">
-        <v>0.1253806936016296</v>
+        <v>0.1230753438915293</v>
       </c>
       <c r="T7">
-        <v>0.1253806936016296</v>
+        <v>0.1230753438915292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.343201232341468</v>
+        <v>0.5253496666666667</v>
       </c>
       <c r="N8">
-        <v>0.343201232341468</v>
+        <v>1.576049</v>
       </c>
       <c r="O8">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="P8">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="Q8">
-        <v>52.08721912386147</v>
+        <v>80.87300503750357</v>
       </c>
       <c r="R8">
-        <v>52.08721912386147</v>
+        <v>727.857045337532</v>
       </c>
       <c r="S8">
-        <v>0.01062191239809359</v>
+        <v>0.01561683849955142</v>
       </c>
       <c r="T8">
-        <v>0.01062191239809359</v>
+        <v>0.01561683849955141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.65815648119568</v>
+        <v>2.717626000000001</v>
       </c>
       <c r="N9">
-        <v>2.65815648119568</v>
+        <v>8.152878000000001</v>
       </c>
       <c r="O9">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="P9">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="Q9">
-        <v>403.4250639397331</v>
+        <v>418.3548503657894</v>
       </c>
       <c r="R9">
-        <v>403.4250639397331</v>
+        <v>3765.193653292104</v>
       </c>
       <c r="S9">
-        <v>0.08226865938404648</v>
+        <v>0.0807856729280281</v>
       </c>
       <c r="T9">
-        <v>0.08226865938404648</v>
+        <v>0.08078567292802809</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4661387264485</v>
+        <v>25.35159533333334</v>
       </c>
       <c r="N10">
-        <v>24.4661387264485</v>
+        <v>76.05478600000001</v>
       </c>
       <c r="O10">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="P10">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="Q10">
-        <v>3713.195084600916</v>
+        <v>3902.65727227025</v>
       </c>
       <c r="R10">
-        <v>3713.195084600916</v>
+        <v>35123.91545043225</v>
       </c>
       <c r="S10">
-        <v>0.7572151781010399</v>
+        <v>0.7536157251963258</v>
       </c>
       <c r="T10">
-        <v>0.7572151781010399</v>
+        <v>0.7536157251963257</v>
       </c>
     </row>
   </sheetData>
